--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham.eglit/Documents/R_Course/Intro_to_R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{748BDA94-9E9B-4849-8C22-E25F189A16D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5E245D-A43F-F048-AEF7-ED82BE430C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16160" xr2:uid="{CE08A13E-FD96-0D47-84C2-912F2551C769}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -53,6 +54,12 @@
   </si>
   <si>
     <t>female</t>
+  </si>
+  <si>
+    <t>ethnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -404,10 +411,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAB1F4B-2FAF-CC40-9A18-96EF485BC55D}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>-999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBEE5B5-B363-8847-A46C-51AB59C99D85}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -420,150 +605,150 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
       <c r="D5">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
       <c r="D6">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
+      <c r="C10">
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
+      <c r="C11">
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
